--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-782202.3778031368</v>
+        <v>-785082.7059631404</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10036405.55371383</v>
+        <v>10036405.55371385</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>326.2719626366464</v>
       </c>
       <c r="G2" t="n">
-        <v>149.6188424629784</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>138.1261293900327</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.2491677474086</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>47.02511813538943</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>266.5469181787398</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>21.98731469248558</v>
+        <v>151.2725262699914</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>282.7470620671675</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>51.85635008141256</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>144.8643043738734</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>118.2537958723258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374745</v>
       </c>
       <c r="U11" t="n">
-        <v>250.908895987647</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182101</v>
+        <v>5.313812950988587</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.79601828574889</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081973</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>130.6740237231385</v>
       </c>
       <c r="U16" t="n">
-        <v>185.4730582691532</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081973</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>127.1562907944299</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>34.89507300046115</v>
       </c>
       <c r="H19" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>23.94516103139438</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>66.74877385786762</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>56.11174229722711</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>127.6429814757079</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545292</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308924</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652567</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.790705123631</v>
+        <v>2036.885894456657</v>
       </c>
       <c r="C2" t="n">
-        <v>1127.790705123631</v>
+        <v>1667.923377516245</v>
       </c>
       <c r="D2" t="n">
-        <v>769.5250065168808</v>
+        <v>1667.923377516245</v>
       </c>
       <c r="E2" t="n">
-        <v>769.5250065168808</v>
+        <v>1282.135124918001</v>
       </c>
       <c r="F2" t="n">
-        <v>358.5391017272732</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1854.025118654825</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1501.256463384711</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1127.790705123631</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y2" t="n">
-        <v>1127.790705123631</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.9192350259435</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>217.9192350259435</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>217.9192350259435</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259435</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117851</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117851</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117851</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117851</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.097625012799</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,40 +4653,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.100961840373</v>
+        <v>1661.975310878425</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4811,7 +4811,7 @@
         <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2644.768939420836</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2313.706052077265</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2313.706052077265</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1940.240293816185</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.100961840373</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084169</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084169</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D10" t="n">
-        <v>500.1394333084169</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E10" t="n">
-        <v>500.1394333084169</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5033,43 @@
         <v>380.275713812763</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
-        <v>893.7741287892036</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294978</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234016</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.583449151122</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
         <v>4152.297666746069</v>
@@ -5112,28 +5112,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L12" t="n">
-        <v>572.0050724668117</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M12" t="n">
-        <v>1164.023426718939</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.119390118276</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O12" t="n">
-        <v>2332.99586511847</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P12" t="n">
         <v>2553.812354695766</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.918406397572</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9822234696651</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8655840573317</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9524904749386</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
         <v>172.8304710411609</v>
@@ -5221,28 +5221,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2338.52687319748</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.52687319748</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.450659512207</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.76617130632</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.349001269359</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.359450371342</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.566871227812</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831372</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127639</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160784</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507183</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074383975</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944169</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883203</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800305</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425944</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946785</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.53409905279</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895494</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5331,61 +5331,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C15" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D15" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E15" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>241.496329903452</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K15" t="n">
-        <v>572.005072466809</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310558</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.755759562683</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N15" t="n">
-        <v>2134.228836269693</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.228836269693</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695767</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S15" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U15" t="n">
         <v>2016.877442379908</v>
@@ -5397,7 +5397,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.876178449477</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.8549404312371</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C16" t="n">
-        <v>847.8549404312371</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D16" t="n">
-        <v>697.7383010189013</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E16" t="n">
-        <v>549.8252074365082</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385979</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131767</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946053</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.699365782258</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335693</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335693</v>
       </c>
       <c r="S16" t="n">
-        <v>2429.412499335685</v>
+        <v>2246.242309074623</v>
       </c>
       <c r="T16" t="n">
-        <v>2209.733717050067</v>
+        <v>2114.248345717918</v>
       </c>
       <c r="U16" t="n">
-        <v>2022.387193545872</v>
+        <v>1825.172132032644</v>
       </c>
       <c r="V16" t="n">
-        <v>1767.702705339985</v>
+        <v>1570.487643826757</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.285535303024</v>
+        <v>1281.070473789797</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.295984405007</v>
+        <v>1281.070473789797</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.503405261477</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.275713812764</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160784</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507183</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074383975</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944169</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234029</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151131</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610266</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5568,61 +5568,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160706</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>424.3570907149641</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L18" t="n">
-        <v>424.3570907149641</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849225</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284256</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284448</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5634,7 +5634,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.2659052086597</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="C19" t="n">
-        <v>549.8252074365082</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="D19" t="n">
-        <v>549.8252074365082</v>
+        <v>565.7716546787944</v>
       </c>
       <c r="E19" t="n">
-        <v>549.8252074365082</v>
+        <v>417.8585610964013</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385979</v>
+        <v>270.9686135984909</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131767</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411603</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294186</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2361.553154294186</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2141.874372008568</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1852.798158323295</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1598.113670117408</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1308.696500080447</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>1080.70694918243</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>859.9143700388994</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5738,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160626</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507175</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074383968</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944168</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883202</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915113</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.75143429761</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580352</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
         <v>93.84834815160704</v>
@@ -5829,37 +5829,37 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L21" t="n">
-        <v>584.580680995356</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.599035247481</v>
+        <v>833.5146841555808</v>
       </c>
       <c r="N21" t="n">
-        <v>1798.694998646814</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284448</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710521</v>
+        <v>2422.070640981187</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.955059989089</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7680286442462</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6513892319105</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7382956495174</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F22" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411603</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074615</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526788997</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103724</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897837</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860876</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628589</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193288</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5978,37 +5978,37 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127631</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160639</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507179</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287892186</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294991</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234025</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151129</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610264</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.75143429761</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580352</v>
@@ -6020,19 +6020,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
         <v>93.84834815160704</v>
@@ -6066,37 +6066,37 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L24" t="n">
-        <v>584.5806809953565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849206</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284254</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284447</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6108,7 +6108,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.5769285337228</v>
+        <v>874.9184063975744</v>
       </c>
       <c r="C25" t="n">
-        <v>680.6407456058159</v>
+        <v>705.9822234696675</v>
       </c>
       <c r="D25" t="n">
-        <v>530.5241061934802</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E25" t="n">
-        <v>382.6110126110871</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F25" t="n">
-        <v>235.7210651131767</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160704</v>
@@ -6145,52 +6145,52 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411604</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.874626721231</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2085.195844435613</v>
+        <v>2049.450659512209</v>
       </c>
       <c r="U25" t="n">
-        <v>1796.11963075034</v>
+        <v>2049.450659512209</v>
       </c>
       <c r="V25" t="n">
-        <v>1541.435142544453</v>
+        <v>1794.766171306322</v>
       </c>
       <c r="W25" t="n">
-        <v>1252.017972507492</v>
+        <v>1505.349001269361</v>
       </c>
       <c r="X25" t="n">
-        <v>1252.017972507492</v>
+        <v>1277.359450371344</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.225393363962</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6461,7 +6461,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,28 +6856,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656818</v>
@@ -7081,25 +7081,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384024</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>51.31264782909267</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>51.31264782909216</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782911694</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>51.31264782911728</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>51.31264782909079</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N20" t="n">
-        <v>51.31264782911717</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>51.31264782911211</v>
+        <v>51.3126478290913</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-2.070364741388211e-12</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80.60408310506506</v>
       </c>
       <c r="G2" t="n">
-        <v>264.1653275578166</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>15.54985258520655</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-3.229532815939493e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>158.5424700727101</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674441053</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>86.80797073962333</v>
       </c>
       <c r="U16" t="n">
-        <v>100.7123932792672</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>40.0905303041979</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>130.6469798767058</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>143.3016600672335</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>79.68518878870155</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.8045767444093</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.226746061232</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>89.83901298705386</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1064012.214488033</v>
+        <v>1064012.214488032</v>
       </c>
     </row>
     <row r="3">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186814.8360194936</v>
+        <v>186814.8360194934</v>
       </c>
       <c r="C2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221837.8187076039</v>
+        <v>221837.8187076038</v>
       </c>
       <c r="F2" t="n">
-        <v>221837.8187076039</v>
+        <v>221837.8187076038</v>
       </c>
       <c r="G2" t="n">
         <v>221837.8187076038</v>
       </c>
       <c r="H2" t="n">
-        <v>221837.8187076038</v>
+        <v>221837.8187076037</v>
       </c>
       <c r="I2" t="n">
         <v>221837.8187076037</v>
@@ -26338,13 +26338,13 @@
         <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
@@ -26353,7 +26353,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545125</v>
+        <v>936509.6654545123</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.287313800819295e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8462122726487e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792255</v>
+        <v>183669.0093792223</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363194</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901372</v>
+        <v>124307.2113901374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.620387699105777e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120178.196486955</v>
+        <v>120178.1964869544</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.97189485514</v>
+        <v>5781.971894855133</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855478</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855482</v>
+        <v>5781.971894855109</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855481</v>
+        <v>5781.97189485512</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855122</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670461</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="M4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476388</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476387</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476383</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.4518647639</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606190.3177454151</v>
+        <v>-606544.6054789893</v>
       </c>
       <c r="C6" t="n">
-        <v>-58137.09727846304</v>
+        <v>-58137.09727846298</v>
       </c>
       <c r="D6" t="n">
-        <v>-58137.0972784631</v>
+        <v>-58137.09727846293</v>
       </c>
       <c r="E6" t="n">
-        <v>-821383.8580990024</v>
+        <v>-821419.7550808666</v>
       </c>
       <c r="F6" t="n">
-        <v>115125.8073555139</v>
+        <v>115089.9103736458</v>
       </c>
       <c r="G6" t="n">
-        <v>115125.8073555099</v>
+        <v>115089.9103736456</v>
       </c>
       <c r="H6" t="n">
-        <v>115125.8073555099</v>
+        <v>115089.9103736457</v>
       </c>
       <c r="I6" t="n">
-        <v>115125.8073555092</v>
+        <v>115089.9103736457</v>
       </c>
       <c r="J6" t="n">
-        <v>-67893.81689005141</v>
+        <v>-67928.55481548392</v>
       </c>
       <c r="K6" t="n">
-        <v>115775.1924891742</v>
+        <v>115740.4545637384</v>
       </c>
       <c r="L6" t="n">
-        <v>90136.20100036683</v>
+        <v>90136.20100036703</v>
       </c>
       <c r="M6" t="n">
-        <v>-14743.29239613836</v>
+        <v>-14743.29239613873</v>
       </c>
       <c r="N6" t="n">
         <v>109563.9189939988</v>
       </c>
       <c r="O6" t="n">
-        <v>109563.9189939988</v>
+        <v>109563.9189939984</v>
       </c>
       <c r="P6" t="n">
-        <v>109563.9189939988</v>
+        <v>109563.9189939994</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26747,16 +26747,16 @@
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26774,7 +26774,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,34 +26969,34 @@
         <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.325370389524672e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.93445162529224</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="M3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405328</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591159</v>
+        <v>673.8912089591161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405328</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405328</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.865860223765</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>189.6261290801022</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>4.973311585527682</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.3354856046862</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>334.9052519368723</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>82.69405053867325</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>230.1503286313424</v>
+        <v>100.8651170538366</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>82.52582970384003</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>199.3678174268767</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>3.751168644338975</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>27.16725215060541</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.262368070660159e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
         <v>55.91171011122282</v>
@@ -31768,7 +31768,7 @@
         <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293309</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
         <v>974.1453645229608</v>
@@ -31783,7 +31783,7 @@
         <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
@@ -31832,22 +31832,22 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>348.1857632660258</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927637</v>
@@ -31856,7 +31856,7 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>357.0213665833166</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31868,7 +31868,7 @@
         <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31926,7 +31926,7 @@
         <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
         <v>374.7525405416874</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830404</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308818</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735807</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848206</v>
+        <v>187.1630768341355</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745701</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504274</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>615.657951181323</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982433</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086214</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293272</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266571</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848206</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>455.6067946997541</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927609</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426179</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982433</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286938</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293272</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266571</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745701</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504274</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>248.6291370077102</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982433</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286938</v>
+        <v>273.0542121815558</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293279</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665712</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>293.7647843155174</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927615</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982436</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,25 +33260,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M42" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121692</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>263.3189197138078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>525.6867728671551</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
         <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020582</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806161006</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35431,7 +35431,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>210.3443242916668</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094305</v>
@@ -35504,7 +35504,7 @@
         <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>223.0469591689864</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
@@ -35583,10 +35583,10 @@
         <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607184</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664359</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020545</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136998</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506914</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104616</v>
+        <v>49.32163785977647</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946959</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>484.3162390979897</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783913</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243766</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883418</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664359</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>779.6000841311718</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263662</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O17" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134798</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104616</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>313.4727607777357</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094276</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981735</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>423.821735783913</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426723</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243766</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606346</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664359</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020545</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N20" t="n">
-        <v>796.0449487554833</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134798</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946959</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>106.0328925632658</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>423.821735783913</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426723</v>
+        <v>133.0724380955343</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243766</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606346</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>525.6867728671724</v>
+        <v>525.6867728671539</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263669</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134805</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>151.6307503934991</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094282</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981739</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606348</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683775</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M42" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288359</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111714</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.557074493085</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819473</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980853</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>136.4812930471411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
